--- a/Code/Results/Cases/Case_5_247/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_247/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9941076804963552</v>
+        <v>1.028408779208068</v>
       </c>
       <c r="D2">
-        <v>1.012221474360132</v>
+        <v>1.030595463669476</v>
       </c>
       <c r="E2">
-        <v>1.007448547849611</v>
+        <v>1.037033332487</v>
       </c>
       <c r="F2">
-        <v>1.009570765753634</v>
+        <v>1.044843750138388</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039780783513007</v>
+        <v>1.029700318295664</v>
       </c>
       <c r="J2">
-        <v>1.016466069577441</v>
+        <v>1.033561260467731</v>
       </c>
       <c r="K2">
-        <v>1.023513130432437</v>
+        <v>1.033406019534925</v>
       </c>
       <c r="L2">
-        <v>1.018805078828954</v>
+        <v>1.039825372727055</v>
       </c>
       <c r="M2">
-        <v>1.020898355660289</v>
+        <v>1.047613659673579</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9987421006221826</v>
+        <v>1.029391606141853</v>
       </c>
       <c r="D3">
-        <v>1.015394689531714</v>
+        <v>1.031280565390298</v>
       </c>
       <c r="E3">
-        <v>1.011461087875149</v>
+        <v>1.037942169326056</v>
       </c>
       <c r="F3">
-        <v>1.014255916627774</v>
+        <v>1.045919146538698</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040651020648819</v>
+        <v>1.029818778292732</v>
       </c>
       <c r="J3">
-        <v>1.019267116081219</v>
+        <v>1.034184513075173</v>
       </c>
       <c r="K3">
-        <v>1.025834310011245</v>
+        <v>1.03389984014603</v>
       </c>
       <c r="L3">
-        <v>1.021949392509923</v>
+        <v>1.040543671192461</v>
       </c>
       <c r="M3">
-        <v>1.024709582768066</v>
+        <v>1.04849968785429</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001679065707141</v>
+        <v>1.030027945567159</v>
       </c>
       <c r="D4">
-        <v>1.017407467309035</v>
+        <v>1.031723906649634</v>
       </c>
       <c r="E4">
-        <v>1.014010200077689</v>
+        <v>1.038531017501686</v>
       </c>
       <c r="F4">
-        <v>1.017232858323543</v>
+        <v>1.046616102736138</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041191310740254</v>
+        <v>1.029894055214282</v>
       </c>
       <c r="J4">
-        <v>1.021039918115327</v>
+        <v>1.034587598436207</v>
       </c>
       <c r="K4">
-        <v>1.02730024289124</v>
+        <v>1.034218733465333</v>
       </c>
       <c r="L4">
-        <v>1.023942424636005</v>
+        <v>1.041008598321494</v>
       </c>
       <c r="M4">
-        <v>1.027127653523558</v>
+        <v>1.049073513562051</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00289950568949</v>
+        <v>1.030295554107258</v>
       </c>
       <c r="D5">
-        <v>1.018244234801862</v>
+        <v>1.031910294321528</v>
       </c>
       <c r="E5">
-        <v>1.015070930031038</v>
+        <v>1.038778752586524</v>
       </c>
       <c r="F5">
-        <v>1.018471764766083</v>
+        <v>1.046909366251543</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041413090993855</v>
+        <v>1.029925372055578</v>
       </c>
       <c r="J5">
-        <v>1.021776006696737</v>
+        <v>1.03475700667297</v>
       </c>
       <c r="K5">
-        <v>1.027908135693188</v>
+        <v>1.034352641704061</v>
       </c>
       <c r="L5">
-        <v>1.024770675530771</v>
+        <v>1.041204086374853</v>
       </c>
       <c r="M5">
-        <v>1.028133106124383</v>
+        <v>1.049314870233169</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003103601854526</v>
+        <v>1.030340492102388</v>
       </c>
       <c r="D6">
-        <v>1.018384188516562</v>
+        <v>1.031941590005251</v>
       </c>
       <c r="E6">
-        <v>1.015248402345839</v>
+        <v>1.038820359117235</v>
       </c>
       <c r="F6">
-        <v>1.018679057458386</v>
+        <v>1.046958621890597</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041450017600947</v>
+        <v>1.029930610950264</v>
       </c>
       <c r="J6">
-        <v>1.021899068250744</v>
+        <v>1.034785448173929</v>
       </c>
       <c r="K6">
-        <v>1.028009718577353</v>
+        <v>1.034375116399599</v>
       </c>
       <c r="L6">
-        <v>1.024909187599228</v>
+        <v>1.041236911572098</v>
       </c>
       <c r="M6">
-        <v>1.02830128609463</v>
+        <v>1.049355402112687</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001695428625429</v>
+        <v>1.030031521007052</v>
       </c>
       <c r="D7">
-        <v>1.017418684811884</v>
+        <v>1.031726397144918</v>
       </c>
       <c r="E7">
-        <v>1.014024415983533</v>
+        <v>1.038534327031001</v>
       </c>
       <c r="F7">
-        <v>1.017249461533325</v>
+        <v>1.046620020304766</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041194295097465</v>
+        <v>1.029894474967072</v>
       </c>
       <c r="J7">
-        <v>1.021049789522495</v>
+        <v>1.034589862270289</v>
       </c>
       <c r="K7">
-        <v>1.027308398224877</v>
+        <v>1.03422052336204</v>
       </c>
       <c r="L7">
-        <v>1.023953529142526</v>
+        <v>1.041011210315022</v>
       </c>
       <c r="M7">
-        <v>1.027141131549267</v>
+        <v>1.049076738109894</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9956870366967139</v>
+        <v>1.028740850130886</v>
       </c>
       <c r="D8">
-        <v>1.013302444837552</v>
+        <v>1.030826989060154</v>
       </c>
       <c r="E8">
-        <v>1.008814638932738</v>
+        <v>1.037340318110652</v>
       </c>
       <c r="F8">
-        <v>1.011165753942054</v>
+        <v>1.045206956506707</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040079671559366</v>
+        <v>1.029740636735092</v>
       </c>
       <c r="J8">
-        <v>1.01742109290382</v>
+        <v>1.033771932696776</v>
       </c>
       <c r="K8">
-        <v>1.024305191194759</v>
+        <v>1.033573040834418</v>
       </c>
       <c r="L8">
-        <v>1.019876519601705</v>
+        <v>1.040068095573263</v>
       </c>
       <c r="M8">
-        <v>1.022196572672934</v>
+        <v>1.047912991716348</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9846003852471177</v>
+        <v>1.02646949779077</v>
       </c>
       <c r="D9">
-        <v>1.005724979380421</v>
+        <v>1.02924243896241</v>
       </c>
       <c r="E9">
-        <v>0.999253320447432</v>
+        <v>1.035242263834506</v>
       </c>
       <c r="F9">
-        <v>1.000003661113986</v>
+        <v>1.042725442874357</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037935910698301</v>
+        <v>1.02945904779942</v>
       </c>
       <c r="J9">
-        <v>1.010708914105988</v>
+        <v>1.032329133485793</v>
       </c>
       <c r="K9">
-        <v>1.018725850676707</v>
+        <v>1.032427219506918</v>
       </c>
       <c r="L9">
-        <v>1.012358523633915</v>
+        <v>1.038407315427913</v>
       </c>
       <c r="M9">
-        <v>1.013096678919356</v>
+        <v>1.045866236354212</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9768353906133134</v>
+        <v>1.02495729942645</v>
       </c>
       <c r="D10">
-        <v>1.000434725860893</v>
+        <v>1.028186364162599</v>
       </c>
       <c r="E10">
-        <v>0.992594656840232</v>
+        <v>1.033847615444407</v>
       </c>
       <c r="F10">
-        <v>0.9922307189352325</v>
+        <v>1.041076856586621</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036378556257239</v>
+        <v>1.029264286794394</v>
       </c>
       <c r="J10">
-        <v>1.005999206643556</v>
+        <v>1.031366302726625</v>
       </c>
       <c r="K10">
-        <v>1.014796135631695</v>
+        <v>1.031660114215</v>
       </c>
       <c r="L10">
-        <v>1.007098916802669</v>
+        <v>1.037300921902899</v>
       </c>
       <c r="M10">
-        <v>1.006741681485466</v>
+        <v>1.044504413679534</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.973375052953905</v>
+        <v>1.024302990978667</v>
       </c>
       <c r="D11">
-        <v>0.9980823862708876</v>
+        <v>1.027729157034498</v>
       </c>
       <c r="E11">
-        <v>0.9896370657377523</v>
+        <v>1.033244691091344</v>
       </c>
       <c r="F11">
-        <v>0.9887779469788979</v>
+        <v>1.040364376056859</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03567200127388</v>
+        <v>1.029178290457414</v>
       </c>
       <c r="J11">
-        <v>1.003898996547335</v>
+        <v>1.030949166894841</v>
       </c>
       <c r="K11">
-        <v>1.013040556812302</v>
+        <v>1.03132719525196</v>
       </c>
       <c r="L11">
-        <v>1.004757094165247</v>
+        <v>1.036822039180131</v>
       </c>
       <c r="M11">
-        <v>1.003914643887198</v>
+        <v>1.043915375194165</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9720741373149069</v>
+        <v>1.0240600248135</v>
       </c>
       <c r="D12">
-        <v>0.9971989034387513</v>
+        <v>1.02755934323621</v>
       </c>
       <c r="E12">
-        <v>0.9885266843617634</v>
+        <v>1.033020884446943</v>
       </c>
       <c r="F12">
-        <v>0.9874815864527736</v>
+        <v>1.040099935392318</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035404549515422</v>
+        <v>1.029146098109302</v>
       </c>
       <c r="J12">
-        <v>1.003109265374472</v>
+        <v>1.030794191160426</v>
       </c>
       <c r="K12">
-        <v>1.012379965517855</v>
+        <v>1.031203421385566</v>
       </c>
       <c r="L12">
-        <v>1.003877046253154</v>
+        <v>1.036644190545717</v>
       </c>
       <c r="M12">
-        <v>1.002852614637819</v>
+        <v>1.043696676927822</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9723539082623347</v>
+        <v>1.024112138563593</v>
       </c>
       <c r="D13">
-        <v>0.9973888610709266</v>
+        <v>1.02759576825139</v>
       </c>
       <c r="E13">
-        <v>0.9887654095482148</v>
+        <v>1.033068885096249</v>
       </c>
       <c r="F13">
-        <v>0.9877602997958302</v>
+        <v>1.040156649463389</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035462148154987</v>
+        <v>1.02915301475953</v>
       </c>
       <c r="J13">
-        <v>1.003279108684144</v>
+        <v>1.030827435459628</v>
       </c>
       <c r="K13">
-        <v>1.012522055242584</v>
+        <v>1.031229976397421</v>
       </c>
       <c r="L13">
-        <v>1.004066289406105</v>
+        <v>1.036682338324246</v>
       </c>
       <c r="M13">
-        <v>1.003080974537266</v>
+        <v>1.043743584053523</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9732678421487051</v>
+        <v>1.024282905825034</v>
       </c>
       <c r="D14">
-        <v>0.9980095583503676</v>
+        <v>1.027715119894802</v>
       </c>
       <c r="E14">
-        <v>0.9895455257959819</v>
+        <v>1.033226188174304</v>
       </c>
       <c r="F14">
-        <v>0.9886710765482023</v>
+        <v>1.040342513095557</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035649996750235</v>
+        <v>1.029175634514592</v>
       </c>
       <c r="J14">
-        <v>1.003833916220142</v>
+        <v>1.030936357219641</v>
       </c>
       <c r="K14">
-        <v>1.012986127642302</v>
+        <v>1.031316966364662</v>
       </c>
       <c r="L14">
-        <v>1.00468456014815</v>
+        <v>1.036807337545746</v>
       </c>
       <c r="M14">
-        <v>1.003827103634539</v>
+        <v>1.043897295547142</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9738288539973201</v>
+        <v>1.024388130875612</v>
       </c>
       <c r="D15">
-        <v>0.9983906882214167</v>
+        <v>1.0277886581788</v>
       </c>
       <c r="E15">
-        <v>0.9900245978800026</v>
+        <v>1.033323127207227</v>
       </c>
       <c r="F15">
-        <v>0.9892303772673349</v>
+        <v>1.040457057177071</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035765067969621</v>
+        <v>1.029189538247178</v>
       </c>
       <c r="J15">
-        <v>1.00417446201184</v>
+        <v>1.031003463170573</v>
       </c>
       <c r="K15">
-        <v>1.013270920968022</v>
+        <v>1.031370548813855</v>
       </c>
       <c r="L15">
-        <v>1.005064130649047</v>
+        <v>1.036884357653397</v>
       </c>
       <c r="M15">
-        <v>1.00428521636713</v>
+        <v>1.043992015127879</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9770629040017077</v>
+        <v>1.025000733950656</v>
       </c>
       <c r="D16">
-        <v>1.000589505924173</v>
+        <v>1.028216709289526</v>
       </c>
       <c r="E16">
-        <v>0.9927893232093745</v>
+        <v>1.033887650014017</v>
       </c>
       <c r="F16">
-        <v>0.9924579697105999</v>
+        <v>1.041124170465087</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036424755407103</v>
+        <v>1.029269959077481</v>
       </c>
       <c r="J16">
-        <v>1.006137268421293</v>
+        <v>1.031393982003669</v>
       </c>
       <c r="K16">
-        <v>1.014911478336431</v>
+        <v>1.031682193065935</v>
       </c>
       <c r="L16">
-        <v>1.007252936052245</v>
+        <v>1.037332707900824</v>
       </c>
       <c r="M16">
-        <v>1.006927663686222</v>
+        <v>1.044543519765398</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9790646999984898</v>
+        <v>1.025385133450057</v>
       </c>
       <c r="D17">
-        <v>1.001951952082186</v>
+        <v>1.028485236792925</v>
       </c>
       <c r="E17">
-        <v>0.9945032263640979</v>
+        <v>1.03424201997003</v>
       </c>
       <c r="F17">
-        <v>0.9944587237089881</v>
+        <v>1.041542999856664</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036829822448931</v>
+        <v>1.02931995987977</v>
       </c>
       <c r="J17">
-        <v>1.007351862936505</v>
+        <v>1.03163888474007</v>
       </c>
       <c r="K17">
-        <v>1.015925842849887</v>
+        <v>1.031877477109407</v>
       </c>
       <c r="L17">
-        <v>1.008608325285512</v>
+        <v>1.037613998351642</v>
       </c>
       <c r="M17">
-        <v>1.008564614203862</v>
+        <v>1.044889635848961</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9802229154357444</v>
+        <v>1.025609393784273</v>
       </c>
       <c r="D18">
-        <v>1.002740730729325</v>
+        <v>1.028641872000938</v>
       </c>
       <c r="E18">
-        <v>0.995495788670234</v>
+        <v>1.034448811266848</v>
       </c>
       <c r="F18">
-        <v>0.9956173867897593</v>
+        <v>1.04178742791555</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037062995251724</v>
+        <v>1.029348963964565</v>
       </c>
       <c r="J18">
-        <v>1.008054475492682</v>
+        <v>1.031781710725981</v>
       </c>
       <c r="K18">
-        <v>1.016512322698507</v>
+        <v>1.031991309862515</v>
       </c>
       <c r="L18">
-        <v>1.009392726261553</v>
+        <v>1.037778088882155</v>
       </c>
       <c r="M18">
-        <v>1.009512201104032</v>
+        <v>1.045091581178302</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9806162680078115</v>
+        <v>1.025685868653618</v>
       </c>
       <c r="D19">
-        <v>1.003008694363802</v>
+        <v>1.028695281820519</v>
       </c>
       <c r="E19">
-        <v>0.995833036097424</v>
+        <v>1.034519337551481</v>
       </c>
       <c r="F19">
-        <v>0.9960110683823001</v>
+        <v>1.041870793926548</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037141980887702</v>
+        <v>1.029358826364427</v>
       </c>
       <c r="J19">
-        <v>1.008293071508623</v>
+        <v>1.031830407004854</v>
       </c>
       <c r="K19">
-        <v>1.016711429356287</v>
+        <v>1.032030111460806</v>
       </c>
       <c r="L19">
-        <v>1.009659154549239</v>
+        <v>1.037834042639858</v>
       </c>
       <c r="M19">
-        <v>1.009834097785774</v>
+        <v>1.045160449755216</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9788509043720635</v>
+        <v>1.025343886196973</v>
       </c>
       <c r="D20">
-        <v>1.00180638935615</v>
+        <v>1.028456425532049</v>
       </c>
       <c r="E20">
-        <v>0.9943200825173549</v>
+        <v>1.034203989770542</v>
       </c>
       <c r="F20">
-        <v>0.9942449300797402</v>
+        <v>1.041498049771771</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036786683983179</v>
+        <v>1.029314611868759</v>
       </c>
       <c r="J20">
-        <v>1.007222155801392</v>
+        <v>1.031612611227063</v>
       </c>
       <c r="K20">
-        <v>1.015817549779174</v>
+        <v>1.031856532537329</v>
       </c>
       <c r="L20">
-        <v>1.008463547150008</v>
+        <v>1.037583816622255</v>
       </c>
       <c r="M20">
-        <v>1.008389735983134</v>
+        <v>1.044852494484192</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9729991490646418</v>
+        <v>1.024232617100168</v>
       </c>
       <c r="D21">
-        <v>0.9978270506308926</v>
+        <v>1.027679973433924</v>
       </c>
       <c r="E21">
-        <v>0.9893161320433219</v>
+        <v>1.033179862292233</v>
       </c>
       <c r="F21">
-        <v>0.9884032642190546</v>
+        <v>1.040287775186569</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035594819603342</v>
+        <v>1.029168980443765</v>
       </c>
       <c r="J21">
-        <v>1.003670808754749</v>
+        <v>1.030904283379036</v>
       </c>
       <c r="K21">
-        <v>1.012849707476237</v>
+        <v>1.031291353098462</v>
       </c>
       <c r="L21">
-        <v>1.004502780490441</v>
+        <v>1.036770527563871</v>
       </c>
       <c r="M21">
-        <v>1.003607722157817</v>
+        <v>1.043852028663796</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9692292320117405</v>
+        <v>1.02353434144357</v>
       </c>
       <c r="D22">
-        <v>0.9952685981430676</v>
+        <v>1.027191864661261</v>
       </c>
       <c r="E22">
-        <v>0.9861013307816394</v>
+        <v>1.032536799641507</v>
       </c>
       <c r="F22">
-        <v>0.9846498376842517</v>
+        <v>1.039528021649661</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03481639378814</v>
+        <v>1.0290759729971</v>
       </c>
       <c r="J22">
-        <v>1.001382019550737</v>
+        <v>1.03045873946947</v>
       </c>
       <c r="K22">
-        <v>1.010934371359187</v>
+        <v>1.030935349329697</v>
       </c>
       <c r="L22">
-        <v>1.001953244368198</v>
+        <v>1.03625935283546</v>
       </c>
       <c r="M22">
-        <v>1.000531643277996</v>
+        <v>1.04322355683224</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9712366373480587</v>
+        <v>1.023904470286971</v>
       </c>
       <c r="D23">
-        <v>0.9966303986891316</v>
+        <v>1.027450612601854</v>
       </c>
       <c r="E23">
-        <v>0.9878122845922328</v>
+        <v>1.032877618727109</v>
       </c>
       <c r="F23">
-        <v>0.9866475065389819</v>
+        <v>1.039930667926974</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035231864796427</v>
+        <v>1.029125414652312</v>
       </c>
       <c r="J23">
-        <v>1.002600817545988</v>
+        <v>1.030694948507763</v>
       </c>
       <c r="K23">
-        <v>1.011954537998878</v>
+        <v>1.031124135283061</v>
       </c>
       <c r="L23">
-        <v>1.00331060052458</v>
+        <v>1.036530319643753</v>
       </c>
       <c r="M23">
-        <v>1.002169135624634</v>
+        <v>1.04355666824068</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9789475383934162</v>
+        <v>1.025362523911123</v>
       </c>
       <c r="D24">
-        <v>1.001872181126441</v>
+        <v>1.028469444077118</v>
       </c>
       <c r="E24">
-        <v>0.9944028593214687</v>
+        <v>1.034221173692481</v>
       </c>
       <c r="F24">
-        <v>0.9943415599440316</v>
+        <v>1.041518360372554</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0368061859542</v>
+        <v>1.029317028900798</v>
       </c>
       <c r="J24">
-        <v>1.00728078288502</v>
+        <v>1.031624483163543</v>
       </c>
       <c r="K24">
-        <v>1.015866498742088</v>
+        <v>1.031865996713903</v>
       </c>
       <c r="L24">
-        <v>1.008528985201258</v>
+        <v>1.037597454389261</v>
       </c>
       <c r="M24">
-        <v>1.008468778185338</v>
+        <v>1.044869276877656</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9875294829914851</v>
+        <v>1.027056340554027</v>
       </c>
       <c r="D25">
-        <v>1.007724394632422</v>
+        <v>1.02965203721065</v>
       </c>
       <c r="E25">
-        <v>1.001773102238583</v>
+        <v>1.035783950882586</v>
       </c>
       <c r="F25">
-        <v>1.002945100335039</v>
+        <v>1.043365962825396</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038512144122464</v>
+        <v>1.029533087374768</v>
       </c>
       <c r="J25">
-        <v>1.012483943580747</v>
+        <v>1.032702305041387</v>
       </c>
       <c r="K25">
-        <v>1.020203971176331</v>
+        <v>1.03272401397708</v>
       </c>
       <c r="L25">
-        <v>1.014343955295472</v>
+        <v>1.038836530604862</v>
       </c>
       <c r="M25">
-        <v>1.015497868805856</v>
+        <v>1.04639490274866</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_247/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_247/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028408779208068</v>
+        <v>0.9941076804963545</v>
       </c>
       <c r="D2">
-        <v>1.030595463669476</v>
+        <v>1.012221474360131</v>
       </c>
       <c r="E2">
-        <v>1.037033332487</v>
+        <v>1.007448547849611</v>
       </c>
       <c r="F2">
-        <v>1.044843750138388</v>
+        <v>1.009570765753634</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029700318295664</v>
+        <v>1.039780783513007</v>
       </c>
       <c r="J2">
-        <v>1.033561260467731</v>
+        <v>1.01646606957744</v>
       </c>
       <c r="K2">
-        <v>1.033406019534925</v>
+        <v>1.023513130432437</v>
       </c>
       <c r="L2">
-        <v>1.039825372727055</v>
+        <v>1.018805078828954</v>
       </c>
       <c r="M2">
-        <v>1.047613659673579</v>
+        <v>1.020898355660289</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029391606141853</v>
+        <v>0.9987421006221829</v>
       </c>
       <c r="D3">
-        <v>1.031280565390298</v>
+        <v>1.015394689531715</v>
       </c>
       <c r="E3">
-        <v>1.037942169326056</v>
+        <v>1.01146108787515</v>
       </c>
       <c r="F3">
-        <v>1.045919146538698</v>
+        <v>1.014255916627775</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029818778292732</v>
+        <v>1.04065102064882</v>
       </c>
       <c r="J3">
-        <v>1.034184513075173</v>
+        <v>1.01926711608122</v>
       </c>
       <c r="K3">
-        <v>1.03389984014603</v>
+        <v>1.025834310011246</v>
       </c>
       <c r="L3">
-        <v>1.040543671192461</v>
+        <v>1.021949392509923</v>
       </c>
       <c r="M3">
-        <v>1.04849968785429</v>
+        <v>1.024709582768067</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030027945567159</v>
+        <v>1.00167906570714</v>
       </c>
       <c r="D4">
-        <v>1.031723906649634</v>
+        <v>1.017407467309034</v>
       </c>
       <c r="E4">
-        <v>1.038531017501686</v>
+        <v>1.014010200077688</v>
       </c>
       <c r="F4">
-        <v>1.046616102736138</v>
+        <v>1.017232858323542</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029894055214282</v>
+        <v>1.041191310740253</v>
       </c>
       <c r="J4">
-        <v>1.034587598436207</v>
+        <v>1.021039918115326</v>
       </c>
       <c r="K4">
-        <v>1.034218733465333</v>
+        <v>1.027300242891239</v>
       </c>
       <c r="L4">
-        <v>1.041008598321494</v>
+        <v>1.023942424636004</v>
       </c>
       <c r="M4">
-        <v>1.049073513562051</v>
+        <v>1.027127653523557</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030295554107258</v>
+        <v>1.00289950568949</v>
       </c>
       <c r="D5">
-        <v>1.031910294321528</v>
+        <v>1.018244234801862</v>
       </c>
       <c r="E5">
-        <v>1.038778752586524</v>
+        <v>1.015070930031038</v>
       </c>
       <c r="F5">
-        <v>1.046909366251543</v>
+        <v>1.018471764766083</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029925372055578</v>
+        <v>1.041413090993855</v>
       </c>
       <c r="J5">
-        <v>1.03475700667297</v>
+        <v>1.021776006696737</v>
       </c>
       <c r="K5">
-        <v>1.034352641704061</v>
+        <v>1.027908135693187</v>
       </c>
       <c r="L5">
-        <v>1.041204086374853</v>
+        <v>1.024770675530771</v>
       </c>
       <c r="M5">
-        <v>1.049314870233169</v>
+        <v>1.028133106124383</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030340492102388</v>
+        <v>1.003103601854527</v>
       </c>
       <c r="D6">
-        <v>1.031941590005251</v>
+        <v>1.018384188516562</v>
       </c>
       <c r="E6">
-        <v>1.038820359117235</v>
+        <v>1.015248402345839</v>
       </c>
       <c r="F6">
-        <v>1.046958621890597</v>
+        <v>1.018679057458387</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029930610950264</v>
+        <v>1.041450017600947</v>
       </c>
       <c r="J6">
-        <v>1.034785448173929</v>
+        <v>1.021899068250745</v>
       </c>
       <c r="K6">
-        <v>1.034375116399599</v>
+        <v>1.028009718577354</v>
       </c>
       <c r="L6">
-        <v>1.041236911572098</v>
+        <v>1.024909187599228</v>
       </c>
       <c r="M6">
-        <v>1.049355402112687</v>
+        <v>1.028301286094631</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030031521007052</v>
+        <v>1.001695428625429</v>
       </c>
       <c r="D7">
-        <v>1.031726397144918</v>
+        <v>1.017418684811884</v>
       </c>
       <c r="E7">
-        <v>1.038534327031001</v>
+        <v>1.014024415983533</v>
       </c>
       <c r="F7">
-        <v>1.046620020304766</v>
+        <v>1.017249461533325</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029894474967072</v>
+        <v>1.041194295097465</v>
       </c>
       <c r="J7">
-        <v>1.034589862270289</v>
+        <v>1.021049789522496</v>
       </c>
       <c r="K7">
-        <v>1.03422052336204</v>
+        <v>1.027308398224878</v>
       </c>
       <c r="L7">
-        <v>1.041011210315022</v>
+        <v>1.023953529142526</v>
       </c>
       <c r="M7">
-        <v>1.049076738109894</v>
+        <v>1.027141131549267</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028740850130886</v>
+        <v>0.995687036696714</v>
       </c>
       <c r="D8">
-        <v>1.030826989060154</v>
+        <v>1.013302444837552</v>
       </c>
       <c r="E8">
-        <v>1.037340318110652</v>
+        <v>1.008814638932738</v>
       </c>
       <c r="F8">
-        <v>1.045206956506707</v>
+        <v>1.011165753942054</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029740636735092</v>
+        <v>1.040079671559366</v>
       </c>
       <c r="J8">
-        <v>1.033771932696776</v>
+        <v>1.01742109290382</v>
       </c>
       <c r="K8">
-        <v>1.033573040834418</v>
+        <v>1.024305191194759</v>
       </c>
       <c r="L8">
-        <v>1.040068095573263</v>
+        <v>1.019876519601705</v>
       </c>
       <c r="M8">
-        <v>1.047912991716348</v>
+        <v>1.022196572672934</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02646949779077</v>
+        <v>0.9846003852471178</v>
       </c>
       <c r="D9">
-        <v>1.02924243896241</v>
+        <v>1.005724979380421</v>
       </c>
       <c r="E9">
-        <v>1.035242263834506</v>
+        <v>0.9992533204474318</v>
       </c>
       <c r="F9">
-        <v>1.042725442874357</v>
+        <v>1.000003661113987</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02945904779942</v>
+        <v>1.037935910698301</v>
       </c>
       <c r="J9">
-        <v>1.032329133485793</v>
+        <v>1.010708914105988</v>
       </c>
       <c r="K9">
-        <v>1.032427219506918</v>
+        <v>1.018725850676707</v>
       </c>
       <c r="L9">
-        <v>1.038407315427913</v>
+        <v>1.012358523633915</v>
       </c>
       <c r="M9">
-        <v>1.045866236354212</v>
+        <v>1.013096678919357</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02495729942645</v>
+        <v>0.9768353906133135</v>
       </c>
       <c r="D10">
-        <v>1.028186364162599</v>
+        <v>1.000434725860893</v>
       </c>
       <c r="E10">
-        <v>1.033847615444407</v>
+        <v>0.9925946568402324</v>
       </c>
       <c r="F10">
-        <v>1.041076856586621</v>
+        <v>0.9922307189352332</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029264286794394</v>
+        <v>1.036378556257239</v>
       </c>
       <c r="J10">
-        <v>1.031366302726625</v>
+        <v>1.005999206643556</v>
       </c>
       <c r="K10">
-        <v>1.031660114215</v>
+        <v>1.014796135631695</v>
       </c>
       <c r="L10">
-        <v>1.037300921902899</v>
+        <v>1.00709891680267</v>
       </c>
       <c r="M10">
-        <v>1.044504413679534</v>
+        <v>1.006741681485467</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024302990978667</v>
+        <v>0.9733750529539053</v>
       </c>
       <c r="D11">
-        <v>1.027729157034498</v>
+        <v>0.9980823862708881</v>
       </c>
       <c r="E11">
-        <v>1.033244691091344</v>
+        <v>0.9896370657377525</v>
       </c>
       <c r="F11">
-        <v>1.040364376056859</v>
+        <v>0.9887779469788979</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029178290457414</v>
+        <v>1.03567200127388</v>
       </c>
       <c r="J11">
-        <v>1.030949166894841</v>
+        <v>1.003898996547335</v>
       </c>
       <c r="K11">
-        <v>1.03132719525196</v>
+        <v>1.013040556812302</v>
       </c>
       <c r="L11">
-        <v>1.036822039180131</v>
+        <v>1.004757094165247</v>
       </c>
       <c r="M11">
-        <v>1.043915375194165</v>
+        <v>1.003914643887199</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.0240600248135</v>
+        <v>0.9720741373149073</v>
       </c>
       <c r="D12">
-        <v>1.02755934323621</v>
+        <v>0.9971989034387516</v>
       </c>
       <c r="E12">
-        <v>1.033020884446943</v>
+        <v>0.9885266843617634</v>
       </c>
       <c r="F12">
-        <v>1.040099935392318</v>
+        <v>0.9874815864527735</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029146098109302</v>
+        <v>1.035404549515422</v>
       </c>
       <c r="J12">
-        <v>1.030794191160426</v>
+        <v>1.003109265374472</v>
       </c>
       <c r="K12">
-        <v>1.031203421385566</v>
+        <v>1.012379965517855</v>
       </c>
       <c r="L12">
-        <v>1.036644190545717</v>
+        <v>1.003877046253154</v>
       </c>
       <c r="M12">
-        <v>1.043696676927822</v>
+        <v>1.002852614637819</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024112138563593</v>
+        <v>0.9723539082623345</v>
       </c>
       <c r="D13">
-        <v>1.02759576825139</v>
+        <v>0.9973888610709263</v>
       </c>
       <c r="E13">
-        <v>1.033068885096249</v>
+        <v>0.9887654095482141</v>
       </c>
       <c r="F13">
-        <v>1.040156649463389</v>
+        <v>0.9877602997958295</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02915301475953</v>
+        <v>1.035462148154987</v>
       </c>
       <c r="J13">
-        <v>1.030827435459628</v>
+        <v>1.003279108684144</v>
       </c>
       <c r="K13">
-        <v>1.031229976397421</v>
+        <v>1.012522055242584</v>
       </c>
       <c r="L13">
-        <v>1.036682338324246</v>
+        <v>1.004066289406104</v>
       </c>
       <c r="M13">
-        <v>1.043743584053523</v>
+        <v>1.003080974537266</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024282905825034</v>
+        <v>0.9732678421487049</v>
       </c>
       <c r="D14">
-        <v>1.027715119894802</v>
+        <v>0.9980095583503675</v>
       </c>
       <c r="E14">
-        <v>1.033226188174304</v>
+        <v>0.9895455257959812</v>
       </c>
       <c r="F14">
-        <v>1.040342513095557</v>
+        <v>0.9886710765482015</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029175634514592</v>
+        <v>1.035649996750235</v>
       </c>
       <c r="J14">
-        <v>1.030936357219641</v>
+        <v>1.003833916220141</v>
       </c>
       <c r="K14">
-        <v>1.031316966364662</v>
+        <v>1.012986127642302</v>
       </c>
       <c r="L14">
-        <v>1.036807337545746</v>
+        <v>1.00468456014815</v>
       </c>
       <c r="M14">
-        <v>1.043897295547142</v>
+        <v>1.003827103634538</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024388130875612</v>
+        <v>0.9738288539973199</v>
       </c>
       <c r="D15">
-        <v>1.0277886581788</v>
+        <v>0.9983906882214165</v>
       </c>
       <c r="E15">
-        <v>1.033323127207227</v>
+        <v>0.9900245978800023</v>
       </c>
       <c r="F15">
-        <v>1.040457057177071</v>
+        <v>0.9892303772673341</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029189538247178</v>
+        <v>1.035765067969621</v>
       </c>
       <c r="J15">
-        <v>1.031003463170573</v>
+        <v>1.00417446201184</v>
       </c>
       <c r="K15">
-        <v>1.031370548813855</v>
+        <v>1.013270920968022</v>
       </c>
       <c r="L15">
-        <v>1.036884357653397</v>
+        <v>1.005064130649046</v>
       </c>
       <c r="M15">
-        <v>1.043992015127879</v>
+        <v>1.004285216367129</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025000733950656</v>
+        <v>0.9770629040017081</v>
       </c>
       <c r="D16">
-        <v>1.028216709289526</v>
+        <v>1.000589505924173</v>
       </c>
       <c r="E16">
-        <v>1.033887650014017</v>
+        <v>0.9927893232093749</v>
       </c>
       <c r="F16">
-        <v>1.041124170465087</v>
+        <v>0.9924579697106001</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029269959077481</v>
+        <v>1.036424755407103</v>
       </c>
       <c r="J16">
-        <v>1.031393982003669</v>
+        <v>1.006137268421293</v>
       </c>
       <c r="K16">
-        <v>1.031682193065935</v>
+        <v>1.014911478336432</v>
       </c>
       <c r="L16">
-        <v>1.037332707900824</v>
+        <v>1.007252936052245</v>
       </c>
       <c r="M16">
-        <v>1.044543519765398</v>
+        <v>1.006927663686222</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025385133450057</v>
+        <v>0.9790646999984887</v>
       </c>
       <c r="D17">
-        <v>1.028485236792925</v>
+        <v>1.001951952082185</v>
       </c>
       <c r="E17">
-        <v>1.03424201997003</v>
+        <v>0.9945032263640969</v>
       </c>
       <c r="F17">
-        <v>1.041542999856664</v>
+        <v>0.9944587237089875</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02931995987977</v>
+        <v>1.036829822448931</v>
       </c>
       <c r="J17">
-        <v>1.03163888474007</v>
+        <v>1.007351862936505</v>
       </c>
       <c r="K17">
-        <v>1.031877477109407</v>
+        <v>1.015925842849886</v>
       </c>
       <c r="L17">
-        <v>1.037613998351642</v>
+        <v>1.008608325285511</v>
       </c>
       <c r="M17">
-        <v>1.044889635848961</v>
+        <v>1.008564614203861</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025609393784273</v>
+        <v>0.9802229154357441</v>
       </c>
       <c r="D18">
-        <v>1.028641872000938</v>
+        <v>1.002740730729324</v>
       </c>
       <c r="E18">
-        <v>1.034448811266848</v>
+        <v>0.9954957886702338</v>
       </c>
       <c r="F18">
-        <v>1.04178742791555</v>
+        <v>0.9956173867897592</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029348963964565</v>
+        <v>1.037062995251724</v>
       </c>
       <c r="J18">
-        <v>1.031781710725981</v>
+        <v>1.008054475492681</v>
       </c>
       <c r="K18">
-        <v>1.031991309862515</v>
+        <v>1.016512322698507</v>
       </c>
       <c r="L18">
-        <v>1.037778088882155</v>
+        <v>1.009392726261553</v>
       </c>
       <c r="M18">
-        <v>1.045091581178302</v>
+        <v>1.009512201104032</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025685868653618</v>
+        <v>0.9806162680078124</v>
       </c>
       <c r="D19">
-        <v>1.028695281820519</v>
+        <v>1.003008694363803</v>
       </c>
       <c r="E19">
-        <v>1.034519337551481</v>
+        <v>0.9958330360974246</v>
       </c>
       <c r="F19">
-        <v>1.041870793926548</v>
+        <v>0.9960110683823007</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029358826364427</v>
+        <v>1.037141980887702</v>
       </c>
       <c r="J19">
-        <v>1.031830407004854</v>
+        <v>1.008293071508624</v>
       </c>
       <c r="K19">
-        <v>1.032030111460806</v>
+        <v>1.016711429356287</v>
       </c>
       <c r="L19">
-        <v>1.037834042639858</v>
+        <v>1.009659154549239</v>
       </c>
       <c r="M19">
-        <v>1.045160449755216</v>
+        <v>1.009834097785774</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025343886196973</v>
+        <v>0.9788509043720632</v>
       </c>
       <c r="D20">
-        <v>1.028456425532049</v>
+        <v>1.00180638935615</v>
       </c>
       <c r="E20">
-        <v>1.034203989770542</v>
+        <v>0.9943200825173548</v>
       </c>
       <c r="F20">
-        <v>1.041498049771771</v>
+        <v>0.9942449300797398</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029314611868759</v>
+        <v>1.036786683983179</v>
       </c>
       <c r="J20">
-        <v>1.031612611227063</v>
+        <v>1.007222155801392</v>
       </c>
       <c r="K20">
-        <v>1.031856532537329</v>
+        <v>1.015817549779174</v>
       </c>
       <c r="L20">
-        <v>1.037583816622255</v>
+        <v>1.008463547150008</v>
       </c>
       <c r="M20">
-        <v>1.044852494484192</v>
+        <v>1.008389735983134</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024232617100168</v>
+        <v>0.9729991490646411</v>
       </c>
       <c r="D21">
-        <v>1.027679973433924</v>
+        <v>0.9978270506308921</v>
       </c>
       <c r="E21">
-        <v>1.033179862292233</v>
+        <v>0.9893161320433211</v>
       </c>
       <c r="F21">
-        <v>1.040287775186569</v>
+        <v>0.9884032642190536</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029168980443765</v>
+        <v>1.035594819603341</v>
       </c>
       <c r="J21">
-        <v>1.030904283379036</v>
+        <v>1.003670808754748</v>
       </c>
       <c r="K21">
-        <v>1.031291353098462</v>
+        <v>1.012849707476237</v>
       </c>
       <c r="L21">
-        <v>1.036770527563871</v>
+        <v>1.004502780490441</v>
       </c>
       <c r="M21">
-        <v>1.043852028663796</v>
+        <v>1.003607722157816</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02353434144357</v>
+        <v>0.969229232011741</v>
       </c>
       <c r="D22">
-        <v>1.027191864661261</v>
+        <v>0.9952685981430679</v>
       </c>
       <c r="E22">
-        <v>1.032536799641507</v>
+        <v>0.9861013307816395</v>
       </c>
       <c r="F22">
-        <v>1.039528021649661</v>
+        <v>0.9846498376842513</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0290759729971</v>
+        <v>1.03481639378814</v>
       </c>
       <c r="J22">
-        <v>1.03045873946947</v>
+        <v>1.001382019550737</v>
       </c>
       <c r="K22">
-        <v>1.030935349329697</v>
+        <v>1.010934371359187</v>
       </c>
       <c r="L22">
-        <v>1.03625935283546</v>
+        <v>1.001953244368199</v>
       </c>
       <c r="M22">
-        <v>1.04322355683224</v>
+        <v>1.000531643277996</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023904470286971</v>
+        <v>0.9712366373480585</v>
       </c>
       <c r="D23">
-        <v>1.027450612601854</v>
+        <v>0.9966303986891309</v>
       </c>
       <c r="E23">
-        <v>1.032877618727109</v>
+        <v>0.9878122845922325</v>
       </c>
       <c r="F23">
-        <v>1.039930667926974</v>
+        <v>0.9866475065389818</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029125414652312</v>
+        <v>1.035231864796427</v>
       </c>
       <c r="J23">
-        <v>1.030694948507763</v>
+        <v>1.002600817545988</v>
       </c>
       <c r="K23">
-        <v>1.031124135283061</v>
+        <v>1.011954537998877</v>
       </c>
       <c r="L23">
-        <v>1.036530319643753</v>
+        <v>1.00331060052458</v>
       </c>
       <c r="M23">
-        <v>1.04355666824068</v>
+        <v>1.002169135624634</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025362523911123</v>
+        <v>0.978947538393417</v>
       </c>
       <c r="D24">
-        <v>1.028469444077118</v>
+        <v>1.001872181126441</v>
       </c>
       <c r="E24">
-        <v>1.034221173692481</v>
+        <v>0.9944028593214692</v>
       </c>
       <c r="F24">
-        <v>1.041518360372554</v>
+        <v>0.9943415599440324</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029317028900798</v>
+        <v>1.036806185954201</v>
       </c>
       <c r="J24">
-        <v>1.031624483163543</v>
+        <v>1.007280782885021</v>
       </c>
       <c r="K24">
-        <v>1.031865996713903</v>
+        <v>1.015866498742089</v>
       </c>
       <c r="L24">
-        <v>1.037597454389261</v>
+        <v>1.008528985201258</v>
       </c>
       <c r="M24">
-        <v>1.044869276877656</v>
+        <v>1.008468778185338</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027056340554027</v>
+        <v>0.9875294829914854</v>
       </c>
       <c r="D25">
-        <v>1.02965203721065</v>
+        <v>1.007724394632423</v>
       </c>
       <c r="E25">
-        <v>1.035783950882586</v>
+        <v>1.001773102238584</v>
       </c>
       <c r="F25">
-        <v>1.043365962825396</v>
+        <v>1.002945100335039</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029533087374768</v>
+        <v>1.038512144122464</v>
       </c>
       <c r="J25">
-        <v>1.032702305041387</v>
+        <v>1.012483943580747</v>
       </c>
       <c r="K25">
-        <v>1.03272401397708</v>
+        <v>1.020203971176332</v>
       </c>
       <c r="L25">
-        <v>1.038836530604862</v>
+        <v>1.014343955295472</v>
       </c>
       <c r="M25">
-        <v>1.04639490274866</v>
+        <v>1.015497868805856</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
